--- a/data/out/wiki/men/fifa/eu/standings_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/standings_eu_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany', 'Spain']</t>
+          <t>['Spain', 'Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,12 +620,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Denmark', 'Sweden']</t>
+          <t>['France', 'England', 'Sweden']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
     </row>
@@ -653,28 +653,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['CIS', 'Netherlands', 'Germany']</t>
+          <t>['England', 'Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['CIS']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -682,17 +692,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -702,38 +712,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'Scotland']</t>
+          <t>['France', 'England', 'Sweden']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Scotland']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -741,48 +751,58 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>England</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -790,38 +810,38 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>England</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -831,17 +851,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['France', 'Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -849,107 +869,107 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>78</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['CIS', 'Netherlands', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['CIS']</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'England']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Scotland']</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>CIS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['Scotland', 'Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Scotland']</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -957,17 +977,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -977,38 +997,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1016,17 +1026,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -1036,38 +1046,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Bulgaria']</t>
+          <t>['Netherlands']</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1075,17 +1085,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -1095,38 +1105,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Scotland']</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1134,17 +1144,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -1158,52 +1168,42 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>84</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['France', 'Bulgaria']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Spain']</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Spain', 'France']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Bulgaria']</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -1213,28 +1213,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1242,17 +1252,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -1262,38 +1272,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Bulgaria']</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1301,17 +1311,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -1321,38 +1331,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1360,17 +1370,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -1380,28 +1390,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>84</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Bulgaria']</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1409,27 +1429,27 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1445,12 +1465,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1458,58 +1478,58 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['England']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1517,58 +1537,58 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['Romania']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1576,58 +1596,48 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>89</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>['England']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1635,17 +1645,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1665,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1671,12 +1681,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>['Turkey']</t>
+          <t>['Germany']</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1684,17 +1694,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -1704,38 +1714,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1743,17 +1753,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
     </row>
@@ -1763,28 +1773,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>41</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['Norway']</t>
+          <t>['Romania']</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1792,17 +1812,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1812,38 +1832,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1851,17 +1871,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
     </row>
@@ -1871,38 +1891,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>38</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['Norway']</t>
+          <t>['Turkey']</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1910,17 +1920,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -1930,38 +1940,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1969,17 +1979,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -1993,26 +2003,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" t="n">
-        <v>51</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>['Spain', 'FR Yugoslavia']</t>
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2166,28 +2166,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2195,48 +2205,58 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>51</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Portugal']</t>
+          <t>['Norway']</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2244,7 +2264,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2254,48 +2274,48 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Greece']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2303,58 +2323,58 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Norway']</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2362,27 +2382,27 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2398,12 +2418,12 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2416,12 +2436,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -2431,38 +2451,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['England']</t>
+          <t>['Portugal']</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2470,17 +2480,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -2490,38 +2500,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="D38" t="n">
-        <v>40</v>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Greece']</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2529,17 +2539,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -2549,28 +2559,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>57</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2578,17 +2598,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2618,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2614,12 +2634,12 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2627,17 +2647,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -2647,38 +2667,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2686,48 +2706,58 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Turkey']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2735,58 +2765,48 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>89</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2794,27 +2814,27 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2830,12 +2850,12 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Netherlands']</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2843,7 +2863,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2853,38 +2873,48 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>30</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Germany']</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2892,17 +2922,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -2912,38 +2942,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>25</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['Romania']</t>
+          <t>['Turkey']</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2951,17 +2971,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -2971,28 +2991,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>89</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -3000,17 +3030,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -3020,38 +3050,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>24</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3059,27 +3079,27 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3095,12 +3115,12 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['Poland']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -3108,58 +3128,58 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Romania']</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3167,58 +3187,48 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>72</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['Greece']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -3226,48 +3236,58 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
           <t>Russia</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>24</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['Portugal']</t>
+          <t>['Sweden']</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3275,17 +3295,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -3295,38 +3315,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>74</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Poland']</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3334,17 +3344,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -3354,28 +3364,38 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>47</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -3383,17 +3403,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -3403,38 +3423,38 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Greece']</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3442,17 +3462,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3482,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3478,12 +3498,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['Ukraine']</t>
+          <t>['Portugal']</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3491,48 +3511,58 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>74</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['Romania']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3540,27 +3570,27 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3576,12 +3606,12 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>['Slovakia']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3589,23 +3619,23 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3613,24 +3643,34 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>88</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>['Northern Ireland']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3638,23 +3678,23 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3674,12 +3714,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Ukraine']</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3687,17 +3727,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3747,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -3723,12 +3763,12 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Romania']</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3736,17 +3776,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3796,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -3772,12 +3812,12 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>['Portugal']</t>
+          <t>['Slovakia']</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3785,27 +3825,27 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3821,12 +3861,12 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['Northern Ireland']</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3834,27 +3874,27 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3870,12 +3910,12 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3883,86 +3923,76 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>74</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['Italy', 'Belgium']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['Sweden']</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>['Denmark', 'Belgium']</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>['Finland']</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3978,12 +4008,12 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Portugal']</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3991,58 +4021,58 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>['Ukraine']</t>
+          <t>['Iceland']</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4050,48 +4080,58 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>94</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Portugal']</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4099,17 +4139,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -4119,38 +4159,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>77</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Croatia', 'England']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4158,17 +4188,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4208,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -4194,12 +4224,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4207,17 +4237,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -4227,38 +4257,38 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['Slovakia']</t>
+          <t>['Finland']</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4266,17 +4296,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4316,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -4302,12 +4332,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4315,17 +4345,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -4335,38 +4365,38 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['Ukraine']</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4374,17 +4404,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
@@ -4394,38 +4424,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>68</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['Hungary']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4433,17 +4453,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -4453,38 +4473,38 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['England', 'Croatia']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4492,27 +4512,27 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -4528,12 +4548,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Scotland']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4541,48 +4561,58 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>30</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Albania']</t>
+          <t>['Slovakia']</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4590,58 +4620,48 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>55</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Germany']</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4649,58 +4669,58 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4708,48 +4728,58 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>68</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Hungary']</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4757,58 +4787,58 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Denmark', 'England']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Slovenia']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4816,17 +4846,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -4836,38 +4866,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" t="n">
-        <v>69</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Scotland']</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -4875,17 +4895,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4915,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -4911,12 +4931,12 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Albania']</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -4924,17 +4944,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Albania</t>
         </is>
       </c>
     </row>
@@ -4944,38 +4964,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -4983,17 +5003,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -5003,38 +5023,38 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5042,17 +5062,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -5062,38 +5082,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
-      </c>
-      <c r="D86" t="n">
-        <v>59</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5101,17 +5111,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -5121,38 +5131,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['England', 'Denmark']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Slovenia']</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5160,17 +5170,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
@@ -5180,38 +5190,38 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5219,17 +5229,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5249,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -5255,12 +5265,12 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Slovakia']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5268,17 +5278,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -5288,38 +5298,38 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium']</t>
+          <t>['France', 'Austria']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Ukraine']</t>
+          <t>['Netherlands']</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5327,17 +5337,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -5347,38 +5357,38 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Slovakia']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5386,17 +5396,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -5406,28 +5416,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>59</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['France', 'Austria']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Netherlands']</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5435,17 +5455,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -5455,38 +5475,38 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Turkey']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5494,17 +5514,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -5514,54 +5534,388 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>80</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['Netherlands']</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['Romania', 'Belgium']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['Slovakia']</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>24</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['Ukraine']</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>37</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['Romania', 'Belgium']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['Slovakia']</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>Group F</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['Czech Republic']</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>66</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Georgia']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['Turkey']</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>2</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D100" t="n">
         <v>94</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>['Turkey', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>['Georgia']</t>
         </is>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr">
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
